--- a/data/pca/factorExposure/factorExposure_2013-06-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002103322543640988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00184742003396297</v>
+      </c>
+      <c r="C2">
+        <v>0.0315620181085607</v>
+      </c>
+      <c r="D2">
+        <v>0.00392774528694669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001758561886335165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.0060318325128761</v>
+      </c>
+      <c r="C4">
+        <v>0.08435368596084836</v>
+      </c>
+      <c r="D4">
+        <v>0.07990766010850192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003907881224394097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01341872678939044</v>
+      </c>
+      <c r="C6">
+        <v>0.1067876414662955</v>
+      </c>
+      <c r="D6">
+        <v>0.03388634524933464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00127778652598348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004848110187145223</v>
+      </c>
+      <c r="C7">
+        <v>0.05196765252616357</v>
+      </c>
+      <c r="D7">
+        <v>0.03831933836752697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.002807363970219075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005724445046151737</v>
+      </c>
+      <c r="C8">
+        <v>0.03627247579528686</v>
+      </c>
+      <c r="D8">
+        <v>0.04243196866749348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005492381184133415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004035741044196317</v>
+      </c>
+      <c r="C9">
+        <v>0.0689514874179272</v>
+      </c>
+      <c r="D9">
+        <v>0.06986784484835537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.005746278321917883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005872218213429376</v>
+      </c>
+      <c r="C10">
+        <v>0.07783759496942201</v>
+      </c>
+      <c r="D10">
+        <v>-0.2115916338373386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004805761795242391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005000725483930782</v>
+      </c>
+      <c r="C11">
+        <v>0.07915719587439456</v>
+      </c>
+      <c r="D11">
+        <v>0.06554290394457332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0007577458093474729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003731748565803993</v>
+      </c>
+      <c r="C12">
+        <v>0.06304706175792076</v>
+      </c>
+      <c r="D12">
+        <v>0.04724010571604311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.004537222649086963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008776082075908532</v>
+      </c>
+      <c r="C13">
+        <v>0.07039102813909126</v>
+      </c>
+      <c r="D13">
+        <v>0.07059124863262223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.004066308385918847</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001789720141886824</v>
+      </c>
+      <c r="C14">
+        <v>0.04714656765359717</v>
+      </c>
+      <c r="D14">
+        <v>0.01432054040417166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002734075179345738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005821058363781927</v>
+      </c>
+      <c r="C15">
+        <v>0.03750351014669361</v>
+      </c>
+      <c r="D15">
+        <v>0.040939903126035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00287367819348257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004909235132404479</v>
+      </c>
+      <c r="C16">
+        <v>0.06470007591314685</v>
+      </c>
+      <c r="D16">
+        <v>0.05023885021407833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.001009493468352066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009232022655366075</v>
+      </c>
+      <c r="C20">
+        <v>0.06491191818779156</v>
+      </c>
+      <c r="D20">
+        <v>0.05739425250976671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004072795313601515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009580808491340938</v>
+      </c>
+      <c r="C21">
+        <v>0.02484939160627178</v>
+      </c>
+      <c r="D21">
+        <v>0.03763620188123604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01576390333336714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007049245942464034</v>
+      </c>
+      <c r="C22">
+        <v>0.08746096228908593</v>
+      </c>
+      <c r="D22">
+        <v>0.1074970817515048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01595160035068899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006817188666172152</v>
+      </c>
+      <c r="C23">
+        <v>0.08998686367042068</v>
+      </c>
+      <c r="D23">
+        <v>0.104193880596691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003776929706313699</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004686026239829093</v>
+      </c>
+      <c r="C24">
+        <v>0.07258642345260552</v>
+      </c>
+      <c r="D24">
+        <v>0.06003567458211577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005081760084567757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002869441158651936</v>
+      </c>
+      <c r="C25">
+        <v>0.07666458701874437</v>
+      </c>
+      <c r="D25">
+        <v>0.06468780392408137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006107090185169231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003562440854953255</v>
+      </c>
+      <c r="C26">
+        <v>0.04149165744441444</v>
+      </c>
+      <c r="D26">
+        <v>0.02808816394494531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004486514848464447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-4.456043901063508e-05</v>
+      </c>
+      <c r="C28">
+        <v>0.1264387387791522</v>
+      </c>
+      <c r="D28">
+        <v>-0.3082629659504995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001637357960823438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003334160829761116</v>
+      </c>
+      <c r="C29">
+        <v>0.0489352768678684</v>
+      </c>
+      <c r="D29">
+        <v>0.01905467713354005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006212848913564748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009202903074025924</v>
+      </c>
+      <c r="C30">
+        <v>0.1366723350747135</v>
+      </c>
+      <c r="D30">
+        <v>0.1082077969541761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.000167307484120711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006200096768126218</v>
+      </c>
+      <c r="C31">
+        <v>0.04603142327711555</v>
+      </c>
+      <c r="D31">
+        <v>0.03540438239939217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001207974139427444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004059249010606203</v>
+      </c>
+      <c r="C32">
+        <v>0.04192841487121615</v>
+      </c>
+      <c r="D32">
+        <v>0.01439623457359078</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00287799163818175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007815400400958029</v>
+      </c>
+      <c r="C33">
+        <v>0.08199427039519978</v>
+      </c>
+      <c r="D33">
+        <v>0.0762642292979796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005476583721449537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.00352505818986174</v>
+      </c>
+      <c r="C34">
+        <v>0.05672394818717339</v>
+      </c>
+      <c r="D34">
+        <v>0.04517797545983059</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00377888413013795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005010067198138544</v>
+      </c>
+      <c r="C35">
+        <v>0.03965027397967838</v>
+      </c>
+      <c r="D35">
+        <v>0.01260297012877845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004467128627545907</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001407480070644502</v>
+      </c>
+      <c r="C36">
+        <v>0.02441099619939077</v>
+      </c>
+      <c r="D36">
+        <v>0.02486508164709382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002302516320223594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009553842186697034</v>
+      </c>
+      <c r="C38">
+        <v>0.03345023736740459</v>
+      </c>
+      <c r="D38">
+        <v>0.03105959857642597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01390585351144246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001102639107835768</v>
+      </c>
+      <c r="C39">
+        <v>0.1147697298822266</v>
+      </c>
+      <c r="D39">
+        <v>0.08171573042859426</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008199357869287717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002219017522009555</v>
+      </c>
+      <c r="C40">
+        <v>0.0858153654355175</v>
+      </c>
+      <c r="D40">
+        <v>0.02762197660135419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0005162285005883031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007321792302593792</v>
+      </c>
+      <c r="C41">
+        <v>0.03962602788986105</v>
+      </c>
+      <c r="D41">
+        <v>0.03879161123820212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00171934578553514</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003095360883468562</v>
+      </c>
+      <c r="C43">
+        <v>0.05049022271922386</v>
+      </c>
+      <c r="D43">
+        <v>0.03159252274736817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.005122833522238307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003411127958285873</v>
+      </c>
+      <c r="C44">
+        <v>0.1071785786058117</v>
+      </c>
+      <c r="D44">
+        <v>0.08433701252073594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002628575166017658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002436751276821816</v>
+      </c>
+      <c r="C46">
+        <v>0.03414629238130679</v>
+      </c>
+      <c r="D46">
+        <v>0.03422695633001988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00130953051792571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002787001677471807</v>
+      </c>
+      <c r="C47">
+        <v>0.03876000145575986</v>
+      </c>
+      <c r="D47">
+        <v>0.03075407736561803</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004178403737714669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006518259364086614</v>
+      </c>
+      <c r="C48">
+        <v>0.03011731610332548</v>
+      </c>
+      <c r="D48">
+        <v>0.03242547936482227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01361197367739109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0138128575999341</v>
+      </c>
+      <c r="C49">
+        <v>0.1707257774249247</v>
+      </c>
+      <c r="D49">
+        <v>0.03312598939536311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0001430010622780314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003769243995136217</v>
+      </c>
+      <c r="C50">
+        <v>0.04134219132637581</v>
+      </c>
+      <c r="D50">
+        <v>0.04048490273916946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.00210461403232385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003931185015318818</v>
+      </c>
+      <c r="C51">
+        <v>0.02033686920619539</v>
+      </c>
+      <c r="D51">
+        <v>0.03218137309478729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001888319550808946</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02022622893558994</v>
+      </c>
+      <c r="C53">
+        <v>0.1655510465591607</v>
+      </c>
+      <c r="D53">
+        <v>0.05223010514464726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0001807840524384201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008485713481213448</v>
+      </c>
+      <c r="C54">
+        <v>0.0551714704081217</v>
+      </c>
+      <c r="D54">
+        <v>0.04113063896526099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004358355057421816</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009465847655333955</v>
+      </c>
+      <c r="C55">
+        <v>0.1054427563656865</v>
+      </c>
+      <c r="D55">
+        <v>0.0537871142570083</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003809054032402235</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01947025759872823</v>
+      </c>
+      <c r="C56">
+        <v>0.1714589613198372</v>
+      </c>
+      <c r="D56">
+        <v>0.05141438508757959</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.00688824028201563</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01966872499660648</v>
+      </c>
+      <c r="C58">
+        <v>0.1005271735518169</v>
+      </c>
+      <c r="D58">
+        <v>0.07846482332494868</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006162662678264885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.008987975642349237</v>
+      </c>
+      <c r="C59">
+        <v>0.1681474103478575</v>
+      </c>
+      <c r="D59">
+        <v>-0.2745651776236164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005671769235285747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02339025640574379</v>
+      </c>
+      <c r="C60">
+        <v>0.2214649196000762</v>
+      </c>
+      <c r="D60">
+        <v>0.02778238203450109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01624104224873189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002199706939712402</v>
+      </c>
+      <c r="C61">
+        <v>0.09540122616395379</v>
+      </c>
+      <c r="D61">
+        <v>0.06165890426606387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1873452978037419</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1440805807523919</v>
+      </c>
+      <c r="C62">
+        <v>0.07273365474806084</v>
+      </c>
+      <c r="D62">
+        <v>0.05184424781823051</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002280263156220845</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006724780664063288</v>
+      </c>
+      <c r="C63">
+        <v>0.05854767587134555</v>
+      </c>
+      <c r="D63">
+        <v>0.02723619247453468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005871549573287526</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01501138676323225</v>
+      </c>
+      <c r="C64">
+        <v>0.09968551929832986</v>
+      </c>
+      <c r="D64">
+        <v>0.06677615825403986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0009235178152383874</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01736479704710281</v>
+      </c>
+      <c r="C65">
+        <v>0.1119895007484556</v>
+      </c>
+      <c r="D65">
+        <v>0.02954358144436787</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.01019926168415783</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01209939181038221</v>
+      </c>
+      <c r="C66">
+        <v>0.1527603262657045</v>
+      </c>
+      <c r="D66">
+        <v>0.1188813598460759</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002695053544885911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01556112617182651</v>
+      </c>
+      <c r="C67">
+        <v>0.06247132634568878</v>
+      </c>
+      <c r="D67">
+        <v>0.04191177422731463</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007736764637460419</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001592916018571145</v>
+      </c>
+      <c r="C68">
+        <v>0.1123367335830758</v>
+      </c>
+      <c r="D68">
+        <v>-0.2628514774234139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.003052467576014105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005559414424518451</v>
+      </c>
+      <c r="C69">
+        <v>0.04578527776371346</v>
+      </c>
+      <c r="D69">
+        <v>0.04732137086772938</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001599789873022929</v>
+      </c>
+      <c r="C70">
+        <v>0.002048208869951281</v>
+      </c>
+      <c r="D70">
+        <v>0.002364977712294647</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.003008381256250805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006206743934690478</v>
+      </c>
+      <c r="C71">
+        <v>0.1144588773318582</v>
+      </c>
+      <c r="D71">
+        <v>-0.2811897159631941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.00858261229108017</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01529597376122429</v>
+      </c>
+      <c r="C72">
+        <v>0.1497470631946303</v>
+      </c>
+      <c r="D72">
+        <v>0.02652800031717507</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01254582321656546</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03070904040968036</v>
+      </c>
+      <c r="C73">
+        <v>0.2839107852204081</v>
+      </c>
+      <c r="D73">
+        <v>0.05037202601114747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004874361156050179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001749120663299541</v>
+      </c>
+      <c r="C74">
+        <v>0.1025218257645053</v>
+      </c>
+      <c r="D74">
+        <v>0.043277486115907</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006113494558024311</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01073442527467053</v>
+      </c>
+      <c r="C75">
+        <v>0.1308824378311959</v>
+      </c>
+      <c r="D75">
+        <v>0.0407640073519532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01249687410828652</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02130146020508243</v>
+      </c>
+      <c r="C76">
+        <v>0.1449964032702101</v>
+      </c>
+      <c r="D76">
+        <v>0.07276264605115862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002417813590201071</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02318832063475712</v>
+      </c>
+      <c r="C77">
+        <v>0.1291316956205518</v>
+      </c>
+      <c r="D77">
+        <v>0.06283116612296327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008996508847336678</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01409898648585096</v>
+      </c>
+      <c r="C78">
+        <v>0.09009163721052225</v>
+      </c>
+      <c r="D78">
+        <v>0.06735203423233464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02771597186995027</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0367449846079161</v>
+      </c>
+      <c r="C79">
+        <v>0.1561674964804398</v>
+      </c>
+      <c r="D79">
+        <v>0.03647710568757039</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005667373809832411</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01077790364257477</v>
+      </c>
+      <c r="C80">
+        <v>0.04170552419463155</v>
+      </c>
+      <c r="D80">
+        <v>0.03526142931748465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008355877887450308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0145818076396885</v>
+      </c>
+      <c r="C81">
+        <v>0.1203202361091003</v>
+      </c>
+      <c r="D81">
+        <v>0.05962093527044079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007488566938674493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01943094447503833</v>
+      </c>
+      <c r="C82">
+        <v>0.1408414051162112</v>
+      </c>
+      <c r="D82">
+        <v>0.04808361753695568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007244779280582149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009762357988041755</v>
+      </c>
+      <c r="C83">
+        <v>0.05714269589309563</v>
+      </c>
+      <c r="D83">
+        <v>0.0491847007786768</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01342069739112711</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01203151430886584</v>
+      </c>
+      <c r="C84">
+        <v>0.03009103622584128</v>
+      </c>
+      <c r="D84">
+        <v>0.0009022189613333166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01672440871815846</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02814491902897604</v>
+      </c>
+      <c r="C85">
+        <v>0.1290037493703391</v>
+      </c>
+      <c r="D85">
+        <v>0.0526441009983811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003650800567681514</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005162672045826097</v>
+      </c>
+      <c r="C86">
+        <v>0.04689701907991722</v>
+      </c>
+      <c r="D86">
+        <v>0.02167354068903016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007486704823671775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009877506204219014</v>
+      </c>
+      <c r="C87">
+        <v>0.1262384875270968</v>
+      </c>
+      <c r="D87">
+        <v>0.08133326871998701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01423734705900954</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002983328267110549</v>
+      </c>
+      <c r="C88">
+        <v>0.06983451185480134</v>
+      </c>
+      <c r="D88">
+        <v>0.02136048399489888</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01422145556209557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001446308088191044</v>
+      </c>
+      <c r="C89">
+        <v>0.1635784006606134</v>
+      </c>
+      <c r="D89">
+        <v>-0.3436236930996708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00101349553476414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007671663049382324</v>
+      </c>
+      <c r="C90">
+        <v>0.1465158652877187</v>
+      </c>
+      <c r="D90">
+        <v>-0.3167738786284078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001775151569273782</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0100814476965294</v>
+      </c>
+      <c r="C91">
+        <v>0.1024345024435683</v>
+      </c>
+      <c r="D91">
+        <v>0.0241284333742442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01493011109626807</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006611411397363205</v>
+      </c>
+      <c r="C92">
+        <v>0.1542880950389866</v>
+      </c>
+      <c r="D92">
+        <v>-0.3259320406012413</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0004296361897681779</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00528216113049002</v>
+      </c>
+      <c r="C93">
+        <v>0.1266831775180315</v>
+      </c>
+      <c r="D93">
+        <v>-0.3102807964114985</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002729450623564226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02187218279105182</v>
+      </c>
+      <c r="C94">
+        <v>0.1551597808959878</v>
+      </c>
+      <c r="D94">
+        <v>0.03551145598980301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00631550107622785</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01596892400325564</v>
+      </c>
+      <c r="C95">
+        <v>0.1228760302388278</v>
+      </c>
+      <c r="D95">
+        <v>0.06961345673903921</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.003786611558561899</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03329999728338352</v>
+      </c>
+      <c r="C97">
+        <v>0.174484656968714</v>
+      </c>
+      <c r="D97">
+        <v>0.04274385586522662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006543955153258746</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0357687390451615</v>
+      </c>
+      <c r="C98">
+        <v>0.2590454747200647</v>
+      </c>
+      <c r="D98">
+        <v>0.04489275668801469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9799075285212373</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9826924683176176</v>
+      </c>
+      <c r="C99">
+        <v>-0.1088392542061764</v>
+      </c>
+      <c r="D99">
+        <v>-0.032854280862386</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001590450789297591</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003377865014223705</v>
+      </c>
+      <c r="C101">
+        <v>0.04901283265420807</v>
+      </c>
+      <c r="D101">
+        <v>0.01910134498030849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
